--- a/Lab/CSC_17A_Lab1A_Negative_Num_Bases.xlsx
+++ b/Lab/CSC_17A_Lab1A_Negative_Num_Bases.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25718"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43EA74D-B91A-4EFF-BD76-FBAFF53846C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F17F04F2-6B02-453B-B298-79C13ABB8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,57 +27,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Base 10</t>
-  </si>
-  <si>
-    <t>Base 2</t>
-  </si>
-  <si>
-    <t>Base 8</t>
-  </si>
-  <si>
-    <t>Base 16</t>
-  </si>
-  <si>
-    <t>(01111111-&gt;1000000+1)=10000001</t>
-  </si>
-  <si>
-    <t>(177-&gt;600+1)=601</t>
-  </si>
-  <si>
-    <t>(7F-&gt;80+1)=81</t>
-  </si>
-  <si>
-    <t>(21-&gt;78+1)=79</t>
-  </si>
-  <si>
-    <t>(25-&gt;52+1)=53</t>
-  </si>
-  <si>
-    <t>(15-&gt;EA+1)=EB</t>
-  </si>
-  <si>
-    <t>(57-&gt;42+1)=43</t>
-  </si>
-  <si>
-    <t>(00111001-&gt;11000110+1)=11000111</t>
-  </si>
-  <si>
-    <t>(39-&gt;C6+1)=C7</t>
-  </si>
-  <si>
-    <t>(171-&gt;828+1)=829</t>
-  </si>
-  <si>
-    <t>(10101011-&gt;01010100+1)=01010101</t>
-  </si>
-  <si>
-    <t>(253-&gt;524+1)=525</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -AB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Positive Binary</t>
+  </si>
+  <si>
+    <t>One's Compliment</t>
+  </si>
+  <si>
+    <t>Two's Compliment</t>
+  </si>
+  <si>
+    <t>Octal Conversion</t>
+  </si>
+  <si>
+    <t>(010)(000)(001)</t>
+  </si>
+  <si>
+    <t>(011)(101)(011)</t>
+  </si>
+  <si>
+    <t>(011)(000)(111)</t>
+  </si>
+  <si>
+    <t>(001)(010)(101)</t>
+  </si>
+  <si>
+    <t>Hex Conversion</t>
+  </si>
+  <si>
+    <t>(1000)(0001)</t>
+  </si>
+  <si>
+    <t>(1110)(1011)</t>
+  </si>
+  <si>
+    <t>(1100)(0111)</t>
+  </si>
+  <si>
+    <t>(0101)(0101)</t>
   </si>
 </sst>
 </file>
@@ -93,12 +90,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,13 +128,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,89 +462,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-127</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-171</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11101011</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11000111</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1010101</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2">
+        <v>353</v>
+      </c>
+      <c r="D4" s="2">
+        <v>307</v>
+      </c>
+      <c r="E4" s="2">
+        <v>125</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E5" s="4">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>-127</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="1">
+        <v>1111111</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D7" s="1">
+        <v>111001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10101011</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11101010</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11000110</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1010100</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B9" s="1">
+        <v>10000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11101011</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11000111</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1010101</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>-10101</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>-71</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
